--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:53:11+00:00</t>
+    <t>2023-02-10T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from BeTempRequestedS" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from BeTempRequestedS" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,16 +88,151 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>18629005</t>
+  </si>
+  <si>
+    <t>385796006</t>
+  </si>
+  <si>
+    <t>385805005</t>
+  </si>
+  <si>
+    <t>17636008</t>
+  </si>
+  <si>
+    <t>166900001</t>
+  </si>
+  <si>
+    <t>127606004</t>
+  </si>
+  <si>
+    <t>225964003</t>
+  </si>
+  <si>
+    <t>225230008</t>
+  </si>
+  <si>
+    <t>182777000</t>
+  </si>
+  <si>
+    <t>427391006</t>
+  </si>
+  <si>
+    <t>276737004</t>
+  </si>
+  <si>
+    <t>57485005</t>
+  </si>
+  <si>
+    <t>2267008</t>
+  </si>
+  <si>
+    <t>41351007</t>
+  </si>
+  <si>
+    <t>174297001</t>
+  </si>
+  <si>
+    <t>386225006</t>
+  </si>
+  <si>
+    <t>28177007</t>
+  </si>
+  <si>
+    <t>87750000</t>
+  </si>
+  <si>
+    <t>81011003</t>
+  </si>
+  <si>
+    <t>762238003</t>
+  </si>
+  <si>
+    <t>89826002</t>
+  </si>
+  <si>
+    <t>90838004</t>
+  </si>
+  <si>
+    <t>6125005</t>
+  </si>
+  <si>
+    <t>173765009</t>
+  </si>
+  <si>
+    <t>48817005</t>
+  </si>
+  <si>
+    <t>56993006</t>
+  </si>
+  <si>
+    <t>225268005</t>
+  </si>
+  <si>
+    <t>429723008</t>
+  </si>
+  <si>
+    <t>385966005</t>
+  </si>
+  <si>
+    <t>18011004</t>
+  </si>
+  <si>
+    <t>445191009</t>
+  </si>
+  <si>
+    <t>79165006</t>
+  </si>
+  <si>
+    <t>75325006</t>
+  </si>
+  <si>
+    <t>183232006</t>
+  </si>
+  <si>
+    <t>233520008</t>
+  </si>
+  <si>
+    <t>113154008</t>
+  </si>
+  <si>
+    <t>397958003</t>
+  </si>
+  <si>
+    <t>103713001</t>
+  </si>
+  <si>
+    <t>103715008</t>
+  </si>
+  <si>
+    <t>175852005</t>
+  </si>
+  <si>
+    <t>225358003</t>
+  </si>
+  <si>
+    <t>413899004</t>
+  </si>
+  <si>
+    <t>225420001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>Codes</t>
   </si>
   <si>
     <t>All codes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-temp-requested-service</t>
@@ -356,6 +492,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -368,28 +803,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:06+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:57:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:57:37+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,133 +91,133 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>103713001</t>
+  </si>
+  <si>
+    <t>103715008</t>
+  </si>
+  <si>
+    <t>113154008</t>
+  </si>
+  <si>
+    <t>127606004</t>
+  </si>
+  <si>
+    <t>166900001</t>
+  </si>
+  <si>
+    <t>173765009</t>
+  </si>
+  <si>
+    <t>174297001</t>
+  </si>
+  <si>
+    <t>175852005</t>
+  </si>
+  <si>
+    <t>17636008</t>
+  </si>
+  <si>
+    <t>18011004</t>
+  </si>
+  <si>
+    <t>182777000</t>
+  </si>
+  <si>
+    <t>183232006</t>
+  </si>
+  <si>
     <t>18629005</t>
   </si>
   <si>
+    <t>225230008</t>
+  </si>
+  <si>
+    <t>225268005</t>
+  </si>
+  <si>
+    <t>225358003</t>
+  </si>
+  <si>
+    <t>225420001</t>
+  </si>
+  <si>
+    <t>225964003</t>
+  </si>
+  <si>
+    <t>2267008</t>
+  </si>
+  <si>
+    <t>233520008</t>
+  </si>
+  <si>
+    <t>276737004</t>
+  </si>
+  <si>
+    <t>28177007</t>
+  </si>
+  <si>
     <t>385796006</t>
   </si>
   <si>
     <t>385805005</t>
   </si>
   <si>
-    <t>17636008</t>
-  </si>
-  <si>
-    <t>166900001</t>
-  </si>
-  <si>
-    <t>127606004</t>
-  </si>
-  <si>
-    <t>225964003</t>
-  </si>
-  <si>
-    <t>225230008</t>
-  </si>
-  <si>
-    <t>182777000</t>
+    <t>385966005</t>
+  </si>
+  <si>
+    <t>386225006</t>
+  </si>
+  <si>
+    <t>397958003</t>
+  </si>
+  <si>
+    <t>41351007</t>
+  </si>
+  <si>
+    <t>413899004</t>
   </si>
   <si>
     <t>427391006</t>
   </si>
   <si>
-    <t>276737004</t>
+    <t>429723008</t>
+  </si>
+  <si>
+    <t>445191009</t>
+  </si>
+  <si>
+    <t>48817005</t>
+  </si>
+  <si>
+    <t>56993006</t>
   </si>
   <si>
     <t>57485005</t>
   </si>
   <si>
-    <t>2267008</t>
-  </si>
-  <si>
-    <t>41351007</t>
-  </si>
-  <si>
-    <t>174297001</t>
-  </si>
-  <si>
-    <t>386225006</t>
-  </si>
-  <si>
-    <t>28177007</t>
+    <t>6125005</t>
+  </si>
+  <si>
+    <t>75325006</t>
+  </si>
+  <si>
+    <t>762238003</t>
+  </si>
+  <si>
+    <t>79165006</t>
+  </si>
+  <si>
+    <t>81011003</t>
   </si>
   <si>
     <t>87750000</t>
   </si>
   <si>
-    <t>81011003</t>
-  </si>
-  <si>
-    <t>762238003</t>
-  </si>
-  <si>
     <t>89826002</t>
   </si>
   <si>
     <t>90838004</t>
-  </si>
-  <si>
-    <t>6125005</t>
-  </si>
-  <si>
-    <t>173765009</t>
-  </si>
-  <si>
-    <t>48817005</t>
-  </si>
-  <si>
-    <t>56993006</t>
-  </si>
-  <si>
-    <t>225268005</t>
-  </si>
-  <si>
-    <t>429723008</t>
-  </si>
-  <si>
-    <t>385966005</t>
-  </si>
-  <si>
-    <t>18011004</t>
-  </si>
-  <si>
-    <t>445191009</t>
-  </si>
-  <si>
-    <t>79165006</t>
-  </si>
-  <si>
-    <t>75325006</t>
-  </si>
-  <si>
-    <t>183232006</t>
-  </si>
-  <si>
-    <t>233520008</t>
-  </si>
-  <si>
-    <t>113154008</t>
-  </si>
-  <si>
-    <t>397958003</t>
-  </si>
-  <si>
-    <t>103713001</t>
-  </si>
-  <si>
-    <t>103715008</t>
-  </si>
-  <si>
-    <t>175852005</t>
-  </si>
-  <si>
-    <t>225358003</t>
-  </si>
-  <si>
-    <t>413899004</t>
-  </si>
-  <si>
-    <t>225420001</t>
   </si>
   <si>
     <t/>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -46,7 +46,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:46+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,10 +357,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from BeTempRequestedS" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-requested-services-nurse.xlsx
+++ b/branches/ValueSet-be-vs-requested-services-nurse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
